--- a/docs/PTA2_DDC_80/PTA2_DDC_80_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731783417.3166602</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731783422.3215308</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783417.3166602.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731783422.3215308.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.74</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731783433.2639039</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731783436.1053653</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783433.2639039.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731783436.1053653.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>133.92</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>133.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7099999999999795</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731783456.0199819</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731783460.9499412</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783456.0199819.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731783460.9499412.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6782</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6792</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>10</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -695,145 +729,163 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731783465.115147</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731783465.115147.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731783465.115147.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6741.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>6741.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731783467.4105911</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731783628.1944666</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783467.4105911.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731783628.1944666.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731783495.6046875</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731783500.9706006</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783495.6046875.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731783500.9706006.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -841,95 +893,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731783521.622483</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731783521.622483.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731783521.622483.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>11.922</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.922</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.06300000000000061</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731783533.200774</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731783537.574757</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783533.200774.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783537.574757.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>128</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -937,51 +1001,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731783538.1508749</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731783549.2010896</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783538.1508749.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731783549.2010896.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.58</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.86</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.280000000000001</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -989,51 +1059,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731783553.2608562</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731783558.0349085</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783553.2608562.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783558.0349085.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>165</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>165.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1041,51 +1117,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731783558.6719594</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731783559.6108825</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783558.6719594.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731783559.6108825.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>166.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>165.12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.639999999999986</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -1093,51 +1175,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731783572.0715015</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731783578.168283</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731783572.0715015.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731783578.168283.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>51.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>51.285</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1145,95 +1233,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731783582.3363266</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731783582.3363266.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731783582.3363266.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>50.61</v>
       </c>
-      <c r="J15" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>50.74</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731783593.956265</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731783597.5621772</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783593.956265.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783597.5621772.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1241,51 +1341,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731783606.231002</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731783607.8583128</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783606.231002.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731783607.8583128.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1417</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1293,51 +1399,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731783608.2644842</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731783611.1626606</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783608.2644842.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783611.1626606.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>61.3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>60.89</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1345,51 +1457,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731783622.476968</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731783626.27103</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783622.476968.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731783626.27103.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>60.55</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>60.87</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1397,137 +1515,155 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731783628.209405</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731783628.209405.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731783628.209405.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731783643.6719751</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731783643.6719751.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731783643.6719751.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>58.38</v>
       </c>
-      <c r="J21" t="n">
-        <v>58.38</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.4199999999999946</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731783644.242629</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731783646.3371084</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731783644.242629.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731783646.3371084.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>142.48</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>142.06</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1535,139 +1671,157 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731783652.5514083</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731783652.5514083.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731783652.5514083.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>143.56</v>
       </c>
-      <c r="J23" t="n">
-        <v>143.56</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731783671.6385908</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731783671.6385908.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731783671.6385908.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>84.81999999999999</v>
       </c>
-      <c r="J24" t="n">
-        <v>84.81999999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>84.88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731783680.2844229</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731783683.3211997</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731783680.2844229.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731783683.3211997.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>376.74</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>373.48</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.259999999999991</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -1675,51 +1829,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731783699.0872118</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731783700.0375981</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/FEES1731783699.0872118.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/FEES1731783700.0375981.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.00068</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1727,95 +1887,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731783700.5531054</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731783700.5531054.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731783700.5531054.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.09818</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.001739999999999992</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731783716.0939732</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731783721.7419524</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783716.0939732.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731783721.7419524.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>34.76</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>34.605</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1823,44 +1995,50 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731783734.0942378</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731783734.0942378.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731783734.0942378.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>34.68</v>
       </c>
-      <c r="J29" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>34.69</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1921,19 +2099,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01500000000000057</v>
+        <v>0.115000000000002</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007500000000000284</v>
+        <v>0.05750000000000099</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03</v>
+        <v>0.23</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -1943,19 +2121,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.1450000000000031</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07750000000000057</v>
+        <v>0.07250000000000156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.45</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -1965,19 +2143,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4199999999999875</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2099999999999937</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -2009,19 +2187,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00068</v>
+        <v>-0.001059999999999992</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00034</v>
+        <v>-0.0005299999999999958</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6899999999999999</v>
+        <v>-1.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.34</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="7">
@@ -2053,19 +2231,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -2141,19 +2319,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="13">
@@ -2185,19 +2363,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2251,19 +2429,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18">
